--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="282">
   <si>
     <t>UseCaseName</t>
   </si>
@@ -917,6 +917,21 @@
   </si>
   <si>
     <t xml:space="preserve"> Enter retype password entry same as previous  password</t>
+  </si>
+  <si>
+    <t>As expected homepage displayed with signup link</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>As expected hompage displayed with expected colors and fonts</t>
+  </si>
+  <si>
+    <t>Account Created Without Enter Domain Name</t>
+  </si>
+  <si>
+    <t>Test Fail</t>
   </si>
 </sst>
 </file>
@@ -1366,25 +1381,25 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1725,8 +1740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD559"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C69" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" topLeftCell="F63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1746,13 +1761,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="53"/>
+      <c r="C1" s="52"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1782,13 +1797,13 @@
       <c r="AD1" s="1"/>
     </row>
     <row r="2" spans="1:30" ht="48.75" customHeight="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="56"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1818,13 +1833,13 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="53"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1854,13 +1869,13 @@
       <c r="AD3" s="1"/>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="57">
+      <c r="B4" s="54">
         <v>44422</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1956,7 +1971,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="30">
+    <row r="7" spans="1:30" ht="45">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -1978,7 +1993,12 @@
       <c r="G7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="8" spans="1:30" ht="110.25" customHeight="1">
       <c r="A8" s="10"/>
@@ -1996,7 +2016,12 @@
       <c r="G8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="9" spans="1:30" s="17" customFormat="1">
       <c r="A9" s="13"/>
@@ -2091,7 +2116,7 @@
         <v>31</v>
       </c>
       <c r="H13" s="37"/>
-      <c r="I13" s="52"/>
+      <c r="I13" s="58"/>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="39"/>
@@ -2102,7 +2127,7 @@
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
-      <c r="I14" s="52"/>
+      <c r="I14" s="58"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
@@ -2278,7 +2303,7 @@
       <c r="B22" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="55" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="37" t="s">
@@ -3242,8 +3267,12 @@
       <c r="G73" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="H73" s="37"/>
-      <c r="I73" s="21"/>
+      <c r="H73" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="I73" s="21" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="46"/>
@@ -8938,7 +8967,6 @@
       <c r="I559" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:K8"/>
   <mergeCells count="2">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="I13:I14"/>
@@ -9184,8 +9212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
